--- a/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_heu_comb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
@@ -659,20 +659,23 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tenfold_Avg!$C$1</c:f>
+              <c:f>Tenfold_Avg!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUCROC</c:v>
+                  <c:v>MCC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -871,2785 +874,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tenfold_Avg!$C$2:$C$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.73618586033950695</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.794008608217592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.807655164930556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.81499234423225397</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81676914544753099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81608193479938396</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82240638261959897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82452558352623495</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82838632089120401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83271574797453796</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83312596450617304</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83578016493055696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83665876977237696</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83947874469521699</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.84021026234567997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84239245756172998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.84089687017746895</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.84245545187114201</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84224295910493796</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.84360411844135796</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.84429253472222299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.84374246479552395</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.84622636959876596</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.84853696469907502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.84928958092206797</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84933509355709802</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84985170717592595</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.85347704475308706</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.85273799189814903</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.85594015239197596</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.85579517505786895</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.85915768470293197</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.85949978298611196</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.86113431954089503</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.86097909432870201</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.86143482349537104</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.86255907600308701</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.86032533998842498</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.86038140190972301</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.86068190586419802</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.86226218894675799</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.861025209780092</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.86320348668981595</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.86065176504629703</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.86040732301311695</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.86068582417052497</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.86225465374228505</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.86003749517746897</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.86369056230709995</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.859862075617285</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.86065266927083295</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.86160572193286999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.86448115596064801</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.86136791087963005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.86070873119212998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.86148214457947503</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.86167775848765404</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.86066050588348697</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.86085220148533903</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.86089922116126405</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AUCPR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$D$2:$D$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.73800057975556099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79390170774421498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.803485527605869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80791611875018199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81165097790937502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80938696230843499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81303629417954004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81428686591754595</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81878202202088901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.823393162672164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82426725084213803</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82743245195385895</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82714680040784305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.82985435678962205</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.83150143429462597</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83356614987620803</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83225951098412398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83378917953573395</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.832592359808348</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.83404423059454302</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.83517940911129895</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.83386065674283105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.83782188423956505</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.83947070179120797</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.83932081211858101</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84105749529463802</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84017707695721799</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.84416356159258599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.84393313724889296</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.84587662509852601</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.84465294538575797</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.84418994337275999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.84813884824832297</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.849317829496817</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.84807600338537004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.84979563196353602</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.84914475793715405</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.84577288028958697</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.84860782892700404</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.85022541661685402</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.84809933660660597</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.84644740880487501</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.847899942948663</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.84523397984834203</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.84449431679881803</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.84596775132880597</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.846499631550512</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.84431898195023203</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.84867078281037001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.84601632506216895</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.84670057241089602</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.84781031374937998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.851429707799366</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.84835268195236102</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.84765221531080204</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.84955039910171304</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.85079190436012997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.84985158328506705</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.84863472860254197</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.84919822004681</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$E$2:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71302083333333299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72708333333333297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.733680555555555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73454861111111103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73038194444444404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73854166666666698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.74131944444444398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75017361111111103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75555555555555498</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.750694444444445</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74982638888888897</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75104166666666605</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75347222222222199</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7578125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.758506944444444</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75815972222222205</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75902777777777797</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75555555555555498</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76024305555555605</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.76249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.76145833333333302</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.76510416666666603</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76614583333333297</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.76736111111111105</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.76822916666666696</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.76684027777777797</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.77430555555555503</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.77118055555555598</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.774131944444445</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.77586805555555605</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.77881944444444495</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.77847222222222201</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.78350694444444502</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.78090277777777795</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78038194444444398</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78420138888888902</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.77899305555555598</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.77829861111111098</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.77986111111111101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.77916666666666701</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.77795138888888904</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.78107638888888897</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.78107638888888897</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.78107638888888897</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.77743055555555496</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.77795138888888904</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.77812499999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78038194444444398</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.77777777777777801</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.77725694444444404</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.77760416666666698</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.78281250000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.78177083333333397</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.78038194444444497</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.77829861111111098</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.77760416666666698</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.77552083333333299</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.77673611111111096</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.77690972222222199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sensitivity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$F$2:$F$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.67430555555555605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72326388888888904</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73888888888888904</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74513888888888902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75833333333333297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75312500000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75833333333333397</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75555555555555598</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77256944444444398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77048611111111098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.765625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76354166666666701</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75416666666666698</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.76458333333333395</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.76666666666666705</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.76736111111111105</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76840277777777799</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76597222222222205</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.76597222222222205</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.764930555555555</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.77673611111111096</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.77187499999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.77777777777777801</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.78020833333333295</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.78402777777777799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.78576388888888904</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.77708333333333302</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78958333333333297</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78784722222222203</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.79652777777777795</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.797569444444445</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.796875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.80659722222222197</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.79965277777777799</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.79895833333333299</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.80173611111111098</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.797569444444445</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.79895833333333299</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.79722222222222205</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.79062500000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.796180555555556</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.79062500000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.796180555555556</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.78645833333333304</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78749999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78923611111111103</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78993055555555602</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.78923611111111103</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.79062500000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.79583333333333295</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.79444444444444495</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.79409722222222201</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.796875</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.79236111111111096</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.78715277777777803</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.78472222222222199</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.78680555555555498</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.78541666666666698</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Specificity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$G$2:$G$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.67569444444444404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70277777777777795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71527777777777801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72222222222222199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71076388888888897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70763888888888904</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72708333333333297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72777777777777797</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.74062499999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.73576388888888899</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.73611111111111105</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74791666666666701</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74236111111111103</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74895833333333295</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.74965277777777795</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.74791666666666701</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75208333333333299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74513888888888902</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75555555555555498</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74826388888888895</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75104166666666705</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75243055555555605</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.75208333333333299</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.750694444444444</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.750694444444444</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.75659722222222203</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.75902777777777797</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.75451388888888904</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.75173611111111105</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75416666666666698</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.75763888888888897</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.76006944444444402</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.76041666666666696</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.76215277777777801</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.76180555555555496</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.76666666666666705</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.76041666666666696</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.75659722222222203</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.76076388888888902</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.76111111111111096</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.76527777777777795</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.76597222222222205</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.77152777777777803</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.76597222222222205</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.76840277777777799</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.76840277777777799</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.76701388888888899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.77083333333333304</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.766319444444444</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.76388888888888895</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.75937500000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.77118055555555598</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.76944444444444404</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.76388888888888895</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.76423611111111101</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.76805555555555605</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.766319444444444</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.76666666666666705</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.76840277777777799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$H$2:$H$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.67532574968971704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70874760440039297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72193507725959305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72842460389629504</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72405476657727696</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72042544691698795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72961360013194598</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73483142659892298</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73948698079382402</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.74822587378720895</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.74344850013657104</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74314141857737703</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.749511846794639</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.747960029209771</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75336526965462702</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75401393541533801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75312407937873604</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75550568123616302</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75039316979099702</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75789601691533404</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.755357625526068</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75612044294427705</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75855556934108703</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.75894036222413797</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.75888426701094502</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.75926614810608595</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.76154598699835196</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.76624990631233603</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.76249487103612401</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.76242742726709301</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.76442608461303996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.76750108373688097</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.76860707623920999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.77107278128323598</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.77072736496928296</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.77036995788576101</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.77462971942403203</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.769029649918057</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.76681949290115403</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.76964563372245198</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.76948424937958404</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.77113252493302198</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.77289064210855996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.77583428441862801</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.77286555027433101</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.77259476866789301</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.77278240378919705</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.77209035990438002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.77534433806796799</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.77160419477996101</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.77012896754015703</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.76790234148171099</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.77653198717461402</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.775055367859667</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.77149072824454601</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.77074369551463295</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.77248322328008401</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.77058995851835399</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.771394239667476</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.77233965693683904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$I$2:$I$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0.67479032225687596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71591697821400202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73028811869297405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73667968696724095</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74073377045522704</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73640109583298696</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74360861028187797</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.74492593411905395</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75565965262256696</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75914728701732304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75435178339390596</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75320120041555005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75182275686267397</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75617215807358196</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75993212145752198</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.76062535129005504</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76065156059841899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76067443222227404</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75806599528012197</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76136254881056697</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.76583722846806301</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.76390897348531195</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.76804256199716203</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76939536894191696</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.771148886384733</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.77220879628403005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.76920725786822797</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.77770142128520003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.77494744551653205</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.77908008360695602</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.780626814973572</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.78338958348043697</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.78247851915753996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.78839090179059002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.78490468489713705</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.784387917270853</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78791486828583401</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.78301818089247299</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.78302227236310795</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.78396311400173102</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.78307513211869095</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78072106039018596</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.78433251883824995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.78314572411829997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.78430403117495195</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.77942369135705003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78005666710634303</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78055214020124297</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78250511027957104</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.78030365276435998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.78019589505588904</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.78156718524425095</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.78530859037544698</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.78443434458838501</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.78395863815351696</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.78138105854806905</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.77970181246128201</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.77754296274889201</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.77897214198424303</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.77880614741155496</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tenfold_Avg!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tenfold_Avg!$B$2:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Tenfold_Avg!$J$2:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3839,31 +1063,36 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="92855680"/>
-        <c:axId val="93140096"/>
+        <c:axId val="72728576"/>
+        <c:axId val="72730496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92855680"/>
+        <c:axId val="72728576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93140096"/>
+        <c:crossAx val="72730496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93140096"/>
+        <c:axId val="72730496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.6000000000000002"/>
+          <c:min val="0.3000000000000001"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92855680"/>
+        <c:crossAx val="72728576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3876,7 +1105,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7066,23 +4295,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94677248"/>
-        <c:axId val="95899648"/>
+        <c:axId val="141646464"/>
+        <c:axId val="72852224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94677248"/>
+        <c:axId val="141646464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95899648"/>
+        <c:crossAx val="72852224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95899648"/>
+        <c:axId val="72852224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7090,7 +4319,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94677248"/>
+        <c:crossAx val="141646464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7102,7 +4331,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7521,8 +4750,8 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7628,7 +4857,7 @@
         <v>0.42615061646851099</v>
       </c>
       <c r="K3">
-        <f>(J3-J2)/J2*100</f>
+        <f t="shared" ref="K3:K34" si="0">(J3-J2)/J2*100</f>
         <v>21.748094035446879</v>
       </c>
     </row>
@@ -7664,7 +4893,7 @@
         <v>0.45432357340091101</v>
       </c>
       <c r="K4">
-        <f>(J4-J3)/J3*100</f>
+        <f t="shared" si="0"/>
         <v>6.6110327765961987</v>
       </c>
     </row>
@@ -7700,7 +4929,7 @@
         <v>0.46749477586781402</v>
       </c>
       <c r="K5">
-        <f>(J5-J4)/J4*100</f>
+        <f t="shared" si="0"/>
         <v>2.8990796951846214</v>
       </c>
     </row>
@@ -7736,7 +4965,7 @@
         <v>0.46971147041300798</v>
       </c>
       <c r="K6">
-        <f>(J6-J5)/J5*100</f>
+        <f t="shared" si="0"/>
         <v>0.47416455961012571</v>
       </c>
     </row>
@@ -7772,7 +5001,7 @@
         <v>0.461251782206899</v>
       </c>
       <c r="K7">
-        <f>(J7-J6)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>-1.8010393058254568</v>
       </c>
     </row>
@@ -7808,7 +5037,7 @@
         <v>0.477576123685233</v>
       </c>
       <c r="K8">
-        <f>(J8-J7)/J7*100</f>
+        <f t="shared" si="0"/>
         <v>3.5391389492803218</v>
       </c>
     </row>
@@ -7844,7 +5073,7 @@
         <v>0.48299798023695101</v>
       </c>
       <c r="K9">
-        <f>(J9-J8)/J8*100</f>
+        <f t="shared" si="0"/>
         <v>1.1352863518134158</v>
       </c>
     </row>
@@ -7880,7 +5109,7 @@
         <v>0.50085678893767105</v>
       </c>
       <c r="K10">
-        <f>(J10-J9)/J9*100</f>
+        <f t="shared" si="0"/>
         <v>3.6974913832887659</v>
       </c>
     </row>
@@ -7916,7 +5145,7 @@
         <v>0.51140291248985004</v>
       </c>
       <c r="K11">
-        <f>(J11-J10)/J10*100</f>
+        <f t="shared" si="0"/>
         <v>2.1056165724632705</v>
       </c>
     </row>
@@ -7952,7 +5181,7 @@
         <v>0.50164403032942195</v>
       </c>
       <c r="K12">
-        <f>(J12-J11)/J11*100</f>
+        <f t="shared" si="0"/>
         <v>-1.9082570556580025</v>
       </c>
     </row>
@@ -7988,7 +5217,7 @@
         <v>0.49984503233694499</v>
       </c>
       <c r="K13">
-        <f>(J13-J12)/J12*100</f>
+        <f t="shared" si="0"/>
         <v>-0.35862043275897931</v>
       </c>
     </row>
@@ -8024,7 +5253,7 @@
         <v>0.502105455404667</v>
       </c>
       <c r="K14">
-        <f>(J14-J13)/J13*100</f>
+        <f t="shared" si="0"/>
         <v>0.45222477397719885</v>
       </c>
     </row>
@@ -8060,7 +5289,7 @@
         <v>0.50708176873587396</v>
       </c>
       <c r="K15">
-        <f>(J15-J14)/J14*100</f>
+        <f t="shared" si="0"/>
         <v>0.99108927768895672</v>
       </c>
     </row>
@@ -8096,7 +5325,7 @@
         <v>0.51574137349162297</v>
       </c>
       <c r="K16">
-        <f>(J16-J15)/J15*100</f>
+        <f t="shared" si="0"/>
         <v>1.7077334050752619</v>
       </c>
     </row>
@@ -8132,7 +5361,7 @@
         <v>0.51710006855415402</v>
       </c>
       <c r="K17">
-        <f>(J17-J16)/J16*100</f>
+        <f t="shared" si="0"/>
         <v>0.26344503899940186</v>
       </c>
     </row>
@@ -8168,7 +5397,7 @@
         <v>0.51647290036053295</v>
       </c>
       <c r="K18">
-        <f>(J18-J17)/J17*100</f>
+        <f t="shared" si="0"/>
         <v>-0.12128565277020338</v>
       </c>
     </row>
@@ -8204,7 +5433,7 @@
         <v>0.51814589677190703</v>
       </c>
       <c r="K19">
-        <f>(J19-J18)/J18*100</f>
+        <f t="shared" si="0"/>
         <v>0.32392723997836465</v>
       </c>
     </row>
@@ -8240,7 +5469,7 @@
         <v>0.51127375098992001</v>
       </c>
       <c r="K20">
-        <f>(J20-J19)/J19*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3262955134453596</v>
       </c>
     </row>
@@ -8276,7 +5505,7 @@
         <v>0.52055708528787203</v>
       </c>
       <c r="K21">
-        <f>(J21-J20)/J20*100</f>
+        <f t="shared" si="0"/>
         <v>1.8157267569433766</v>
       </c>
     </row>
@@ -8312,7 +5541,7 @@
         <v>0.52529719646678297</v>
       </c>
       <c r="K22">
-        <f>(J22-J21)/J21*100</f>
+        <f t="shared" si="0"/>
         <v>0.91058431685539643</v>
       </c>
     </row>
@@ -8348,7 +5577,7 @@
         <v>0.523041522205134</v>
       </c>
       <c r="K23">
-        <f>(J23-J22)/J22*100</f>
+        <f t="shared" si="0"/>
         <v>-0.42940915672516872</v>
       </c>
     </row>
@@ -8384,7 +5613,7 @@
         <v>0.53038435393681005</v>
       </c>
       <c r="K24">
-        <f>(J24-J23)/J23*100</f>
+        <f t="shared" si="0"/>
         <v>1.4038716660044113</v>
       </c>
     </row>
@@ -8420,7 +5649,7 @@
         <v>0.53254746959972699</v>
       </c>
       <c r="K25">
-        <f>(J25-J24)/J24*100</f>
+        <f t="shared" si="0"/>
         <v>0.40783926729004727</v>
       </c>
     </row>
@@ -8456,7 +5685,7 @@
         <v>0.53517212821862503</v>
       </c>
       <c r="K26">
-        <f>(J26-J25)/J25*100</f>
+        <f t="shared" si="0"/>
         <v>0.49284970236940384</v>
       </c>
     </row>
@@ -8492,7 +5721,7 @@
         <v>0.53690584169646405</v>
       </c>
       <c r="K27">
-        <f>(J27-J26)/J26*100</f>
+        <f t="shared" si="0"/>
         <v>0.3239543665343444</v>
       </c>
     </row>
@@ -8528,7 +5757,7 @@
         <v>0.53383316421897498</v>
       </c>
       <c r="K28">
-        <f>(J28-J27)/J27*100</f>
+        <f t="shared" si="0"/>
         <v>-0.57229354550889555</v>
       </c>
     </row>
@@ -8564,7 +5793,7 @@
         <v>0.54892698595175404</v>
       </c>
       <c r="K29">
-        <f>(J29-J28)/J28*100</f>
+        <f t="shared" si="0"/>
         <v>2.827441744812182</v>
       </c>
     </row>
@@ -8600,7 +5829,7 @@
         <v>0.542684260281729</v>
       </c>
       <c r="K30">
-        <f>(J30-J29)/J29*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1372597503475119</v>
       </c>
     </row>
@@ -8636,7 +5865,7 @@
         <v>0.54885164743541803</v>
       </c>
       <c r="K31">
-        <f>(J31-J30)/J30*100</f>
+        <f t="shared" si="0"/>
         <v>1.1364595594659948</v>
       </c>
     </row>
@@ -8672,7 +5901,7 @@
         <v>0.552285671704143</v>
       </c>
       <c r="K32">
-        <f>(J32-J31)/J31*100</f>
+        <f t="shared" si="0"/>
         <v>0.62567440305060562</v>
       </c>
     </row>
@@ -8708,7 +5937,7 @@
         <v>0.558179826681514</v>
       </c>
       <c r="K33">
-        <f>(J33-J32)/J32*100</f>
+        <f t="shared" si="0"/>
         <v>1.0672293849637431</v>
       </c>
     </row>
@@ -8744,7 +5973,7 @@
         <v>0.55733252140829503</v>
       </c>
       <c r="K34">
-        <f>(J34-J33)/J33*100</f>
+        <f t="shared" si="0"/>
         <v>-0.15179790324139086</v>
       </c>
     </row>
@@ -8780,7 +6009,7 @@
         <v>0.56768767993741198</v>
       </c>
       <c r="K35">
-        <f>(J35-J34)/J34*100</f>
+        <f t="shared" ref="K35:K66" si="1">(J35-J34)/J34*100</f>
         <v>1.8579856963937844</v>
       </c>
       <c r="L35" t="s">
@@ -8819,7 +6048,7 @@
         <v>0.56223443041649701</v>
       </c>
       <c r="K36">
-        <f>(J36-J35)/J35*100</f>
+        <f t="shared" si="1"/>
         <v>-0.96060733985211655</v>
       </c>
     </row>
@@ -8855,7 +6084,7 @@
         <v>0.56117508869345001</v>
       </c>
       <c r="K37">
-        <f>(J37-J36)/J36*100</f>
+        <f t="shared" si="1"/>
         <v>-0.18841637326662011</v>
       </c>
     </row>
@@ -8891,7 +6120,7 @@
         <v>0.56880730078017605</v>
       </c>
       <c r="K38">
-        <f>(J38-J37)/J37*100</f>
+        <f t="shared" si="1"/>
         <v>1.3600411423279068</v>
       </c>
       <c r="L38" t="s">
@@ -8930,7 +6159,7 @@
         <v>0.55840481185241997</v>
       </c>
       <c r="K39">
-        <f>(J39-J38)/J38*100</f>
+        <f t="shared" si="1"/>
         <v>-1.828824790660744</v>
       </c>
     </row>
@@ -8966,7 +6195,7 @@
         <v>0.55717403309984004</v>
       </c>
       <c r="K40">
-        <f>(J40-J39)/J39*100</f>
+        <f t="shared" si="1"/>
         <v>-0.22040976840744195</v>
       </c>
     </row>
@@ -9002,7 +6231,7 @@
         <v>0.56023093863415996</v>
       </c>
       <c r="K41">
-        <f>(J41-J40)/J40*100</f>
+        <f t="shared" si="1"/>
         <v>0.54864465188961042</v>
       </c>
     </row>
@@ -9038,7 +6267,7 @@
         <v>0.55874777794244102</v>
       </c>
       <c r="K42">
-        <f>(J42-J41)/J41*100</f>
+        <f t="shared" si="1"/>
         <v>-0.26474094689145178</v>
       </c>
     </row>
@@ -9074,7 +6303,7 @@
         <v>0.55613478589982701</v>
       </c>
       <c r="K43">
-        <f>(J43-J42)/J42*100</f>
+        <f t="shared" si="1"/>
         <v>-0.46765144234420197</v>
       </c>
     </row>
@@ -9110,7 +6339,7 @@
         <v>0.56245413390657495</v>
       </c>
       <c r="K44">
-        <f>(J44-J43)/J43*100</f>
+        <f t="shared" si="1"/>
         <v>1.1362979203905079</v>
       </c>
     </row>
@@ -9146,7 +6375,7 @@
         <v>0.56227617148338205</v>
       </c>
       <c r="K45">
-        <f>(J45-J44)/J44*100</f>
+        <f t="shared" si="1"/>
         <v>-3.1640344068030471E-2</v>
       </c>
       <c r="L45" t="s">
@@ -9185,7 +6414,7 @@
         <v>0.56248223067188996</v>
       </c>
       <c r="K46">
-        <f>(J46-J45)/J45*100</f>
+        <f t="shared" si="1"/>
         <v>3.6647327231437231E-2</v>
       </c>
     </row>
@@ -9221,7 +6450,7 @@
         <v>0.55501141245545704</v>
       </c>
       <c r="K47">
-        <f>(J47-J46)/J46*100</f>
+        <f t="shared" si="1"/>
         <v>-1.3281874180290032</v>
       </c>
     </row>
@@ -9257,7 +6486,7 @@
         <v>0.55602580004595903</v>
       </c>
       <c r="K48">
-        <f>(J48-J47)/J47*100</f>
+        <f t="shared" si="1"/>
         <v>0.18276878055789469</v>
       </c>
     </row>
@@ -9293,7 +6522,7 @@
         <v>0.55641359761048903</v>
       </c>
       <c r="K49">
-        <f>(J49-J48)/J48*100</f>
+        <f t="shared" si="1"/>
         <v>6.9744527052152519E-2</v>
       </c>
     </row>
@@ -9329,7 +6558,7 @@
         <v>0.56095699457081105</v>
       </c>
       <c r="K50">
-        <f>(J50-J49)/J49*100</f>
+        <f t="shared" si="1"/>
         <v>0.8165503107461034</v>
       </c>
     </row>
@@ -9365,7 +6594,7 @@
         <v>0.55572571751051103</v>
       </c>
       <c r="K51">
-        <f>(J51-J50)/J50*100</f>
+        <f t="shared" si="1"/>
         <v>-0.93256294349310653</v>
       </c>
     </row>
@@ -9401,7 +6630,7 @@
         <v>0.55477953914507105</v>
       </c>
       <c r="K52">
-        <f>(J52-J51)/J51*100</f>
+        <f t="shared" si="1"/>
         <v>-0.17025995659847787</v>
       </c>
     </row>
@@ -9437,7 +6666,7 @@
         <v>0.55565789330228799</v>
       </c>
       <c r="K53">
-        <f>(J53-J52)/J52*100</f>
+        <f t="shared" si="1"/>
         <v>0.15832490119777978</v>
       </c>
     </row>
@@ -9473,7 +6702,7 @@
         <v>0.56589382818078804</v>
       </c>
       <c r="K54">
-        <f>(J54-J53)/J53*100</f>
+        <f t="shared" si="1"/>
         <v>1.8421289433445551</v>
       </c>
       <c r="L54" t="s">
@@ -9512,7 +6741,7 @@
         <v>0.56375146062653403</v>
       </c>
       <c r="K55">
-        <f>(J55-J54)/J54*100</f>
+        <f t="shared" si="1"/>
         <v>-0.3785811838841226</v>
       </c>
     </row>
@@ -9548,7 +6777,7 @@
         <v>0.56109546122235698</v>
       </c>
       <c r="K56">
-        <f>(J56-J55)/J55*100</f>
+        <f t="shared" si="1"/>
         <v>-0.47112949405492605</v>
       </c>
     </row>
@@ -9584,7 +6813,7 @@
         <v>0.55684897046723303</v>
       </c>
       <c r="K57">
-        <f>(J57-J56)/J56*100</f>
+        <f t="shared" si="1"/>
         <v>-0.75682144102055204</v>
       </c>
     </row>
@@ -9620,7 +6849,7 @@
         <v>0.55537935445221998</v>
       </c>
       <c r="K58">
-        <f>(J58-J57)/J57*100</f>
+        <f t="shared" si="1"/>
         <v>-0.2639164464612278</v>
       </c>
     </row>
@@ -9656,7 +6885,7 @@
         <v>0.55120812656479401</v>
       </c>
       <c r="K59">
-        <f>(J59-J58)/J58*100</f>
+        <f t="shared" si="1"/>
         <v>-0.75105922717277063</v>
       </c>
     </row>
@@ -9692,7 +6921,7 @@
         <v>0.553659120708758</v>
       </c>
       <c r="K60">
-        <f>(J60-J59)/J59*100</f>
+        <f t="shared" si="1"/>
         <v>0.44465856467663667</v>
       </c>
     </row>
@@ -9728,14 +6957,11 @@
         <v>0.55392348054826401</v>
       </c>
       <c r="K61">
-        <f>(J61-J60)/J60*100</f>
+        <f t="shared" si="1"/>
         <v>4.7747762046725782E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K61">
-    <filterColumn colId="10"/>
-  </autoFilter>
   <sortState ref="A2:L61">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_heu_comb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>MCC</t>
   </si>
@@ -108,6 +108,18 @@
       </rPr>
       <t>MCC</t>
     </r>
+  </si>
+  <si>
+    <t>Best(Sens</t>
+  </si>
+  <si>
+    <t>BEST(MCC, Acc,F1)</t>
+  </si>
+  <si>
+    <t>Best(AUCROC, Spec, Prec)</t>
+  </si>
+  <si>
+    <t>BEST(AUPR)</t>
   </si>
 </sst>
 </file>
@@ -659,9 +671,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1063,11 +1073,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72728576"/>
-        <c:axId val="72730496"/>
+        <c:axId val="89063424"/>
+        <c:axId val="89065728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72728576"/>
+        <c:axId val="89063424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1076,36 +1086,35 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72730496"/>
+        <c:crossAx val="89065728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72730496"/>
+        <c:axId val="89065728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.6000000000000002"/>
-          <c:min val="0.3000000000000001"/>
+          <c:max val="0.60000000000000031"/>
+          <c:min val="0.30000000000000016"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72728576"/>
+        <c:crossAx val="89063424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4295,23 +4304,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="141646464"/>
-        <c:axId val="72852224"/>
+        <c:axId val="77395456"/>
+        <c:axId val="77396992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141646464"/>
+        <c:axId val="77395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72852224"/>
+        <c:crossAx val="77396992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72852224"/>
+        <c:axId val="77396992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,7 +4328,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141646464"/>
+        <c:crossAx val="77395456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4331,7 +4340,1363 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>seed_10!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>seed_10!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>seed_10!$J$2:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.371608430720827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43252704348683801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48963056078083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49148612789026802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.493129877845563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49506107387047699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49479241233962901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48797151947586198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48490802883402301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51563199375394198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50177316592069099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50719215735658596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51390128056222195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50524564457758203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51389198672318503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51566308054825405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52606148694440202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51737358651196697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51044436079688804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50347525726258002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51756082588832797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52622012986131195</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52964880227807098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50890224849208898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52438458841323998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53316693025552098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51737358651196697</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54206219535986999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53851917051415199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.548879183988634</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.53366291607815397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52803567067261004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55064687865593398</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55293729104919098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52622012986131195</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53858743769730599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54723881861208701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.534928638837601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54409281020346001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54071422163086802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54701433677899103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53321839688420303</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55078649795675705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55560914698533903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.54006812297862306</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56083235404864495</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54711333882255297</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54869380774365495</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56770918889494204</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54174831650639299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52823651561125595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.54028975424875902</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.56424376420885902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.571202076583195</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53681522206709498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.53831127814699198</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55041441558334503</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.52951468688977799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.53475123512054901</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55729922557244305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="88405888"/>
+        <c:axId val="88404352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88405888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88404352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88404352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88405888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>seed_10!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUCPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>seed_10!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>seed_10!$D$2:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.74905885749319601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80526685305943602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82124225766855796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82737262313116799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.830161614211818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82988870286550298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82985772309643802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82909239132976598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83151842348428295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83944020096424798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83600505805452496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84236169382012305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83988255100507603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84115099934757598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.845384244402965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84533620923184605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84058891791124801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84058913854278206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84012512033785902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84287382969574798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84343047260080095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84248751596652505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84591227325421403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84394131435175301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84618279087482096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84536525482764102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84407947154892304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85175131755818301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85207935629102804</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.853032679572721</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84764519942217498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.84508999991436395</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85603712540609</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85156589888646295</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85284051832894603</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85216271349293005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85122475916222096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.84915125700859995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85109203738539896</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85724093826723902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85080975259188596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85547637778779495</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.857530959186249</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85402036101572798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.85074216454404405</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85822702783042404</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85338931226300496</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.85543843977899303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86262692188620305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.85602306996986499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.85322205192824196</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.85817500538951197</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.86161421149182604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.85923701640098205</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.85909795968319702</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.86028643857611098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.86183294383397402</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.86201486605955302</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86416542096117199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.86550331495686805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="89086976"/>
+        <c:axId val="89085440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89086976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89085440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89085440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89086976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>seed_10!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUCROC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>seed_10!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>seed_10!$C$2:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.74018313560956805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79870756172839397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81562710985725595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82675811390818199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82821542245370205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82962450569058699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83265064380787102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83191671489197505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83350212191358197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84032148196373502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83874059606481799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84307785976080396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84474012586805503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84457284432870305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84733072916666796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84853636188271797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84574532214506104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84510935088734795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84406798562885799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84478081597222499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84668420862268501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84753870081018601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85002230420524605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84815357349537002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84978871286651003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84892819251543195</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84912410783179204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85535873601466195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85480113088348997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85747763551311895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85695469232252997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85501513069058699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86026716820987503</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85879328221450602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.858276367187499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85972764756944398</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85873902874228303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85734200183256104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85966736593364002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.86109151957947405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85995370370370305</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86056706934799299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.86374240451388795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85974573206018601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.85803976176697605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86408148871527601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86153458960262297</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86078559027777901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86806610484182001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86101918161651303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.86010892891589497</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.86253677179783905</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.86357060185184997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.86339578510802595</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.86110960407021497</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.86134620949073903</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.86274775752314903</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.86175913869598597</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86433617862654399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.86613106433256304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="95906816"/>
+        <c:axId val="93451392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95906816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93451392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93451392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95906816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4399,6 +5764,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4749,9 +6209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6009,7 +7469,7 @@
         <v>0.56768767993741198</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K66" si="1">(J35-J34)/J34*100</f>
+        <f t="shared" ref="K35:K61" si="1">(J35-J34)/J34*100</f>
         <v>1.8579856963937844</v>
       </c>
       <c r="L35" t="s">
@@ -8939,16 +10399,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -8977,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9008,8 +10468,9 @@
       <c r="J2">
         <v>0.371608430720827</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9041,7 +10502,7 @@
         <v>0.43252704348683801</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9073,7 +10534,7 @@
         <v>0.48963056078083</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9105,7 +10566,7 @@
         <v>0.49148612789026802</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9137,7 +10598,7 @@
         <v>0.493129877845563</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9169,7 +10630,7 @@
         <v>0.49506107387047699</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9201,7 +10662,7 @@
         <v>0.49479241233962901</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9233,7 +10694,7 @@
         <v>0.48797151947586198</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9265,7 +10726,7 @@
         <v>0.48490802883402301</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9297,7 +10758,7 @@
         <v>0.51563199375394198</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9329,7 +10790,7 @@
         <v>0.50177316592069099</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9361,7 +10822,7 @@
         <v>0.50719215735658596</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9393,7 +10854,7 @@
         <v>0.51390128056222195</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9425,7 +10886,7 @@
         <v>0.50524564457758203</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9969,7 +11430,7 @@
         <v>0.53366291607815397</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10001,7 +11462,7 @@
         <v>0.52803567067261004</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10033,39 +11494,42 @@
         <v>0.55064687865593398</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>340</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.85879328221450602</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>0.85156589888646295</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0.77604166666666696</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>0.80381944444444398</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>0.74826388888888895</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>0.76151315789473695</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>0.78209459459459496</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>0.55293729104919098</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10097,7 +11561,7 @@
         <v>0.52622012986131195</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10129,7 +11593,7 @@
         <v>0.53858743769730599</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10161,7 +11625,7 @@
         <v>0.54723881861208701</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10193,7 +11657,7 @@
         <v>0.534928638837601</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10225,7 +11689,7 @@
         <v>0.54409281020346001</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10257,7 +11721,7 @@
         <v>0.54071422163086802</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10289,7 +11753,7 @@
         <v>0.54701433677899103</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10321,7 +11785,7 @@
         <v>0.53321839688420303</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10353,7 +11817,7 @@
         <v>0.55078649795675705</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10385,7 +11849,7 @@
         <v>0.55560914698533903</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10417,7 +11881,7 @@
         <v>0.54006812297862306</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10449,7 +11913,7 @@
         <v>0.56083235404864495</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10481,7 +11945,7 @@
         <v>0.54711333882255297</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10513,39 +11977,42 @@
         <v>0.54869380774365495</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>490</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.86806610484182001</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>0.86262692188620305</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>0.78385416666666696</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>0.78472222222222199</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>0.78298611111111105</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>0.78336221837088404</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>0.78404163052905496</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>0.56770918889494204</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10577,7 +12044,7 @@
         <v>0.54174831650639299</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10609,7 +12076,7 @@
         <v>0.52823651561125595</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10641,7 +12108,7 @@
         <v>0.54028975424875902</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10673,39 +12140,42 @@
         <v>0.56424376420885902</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>540</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>0.86339578510802595</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>0.85923701640098205</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>0.78559027777777801</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>0.78993055555555602</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>0.78125</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>0.78313253012048201</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>0.78651685393258397</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>0.571202076583195</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10737,7 +12207,7 @@
         <v>0.53681522206709498</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10769,7 +12239,7 @@
         <v>0.53831127814699198</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10801,7 +12271,7 @@
         <v>0.55041441558334503</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10833,7 +12303,7 @@
         <v>0.52951468688977799</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10865,40 +12335,47 @@
         <v>0.53475123512054901</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>600</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>0.86613106433256304</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>0.86550331495686805</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>0.77864583333333304</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>0.78125</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>0.77604166666666696</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>0.77720207253885998</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>0.77922077922077904</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <v>0.55729922557244305</v>
       </c>
+      <c r="K61" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K61">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_heu_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -671,7 +671,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1073,11 +1075,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89063424"/>
-        <c:axId val="89065728"/>
+        <c:axId val="80959744"/>
+        <c:axId val="88081152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89063424"/>
+        <c:axId val="80959744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1086,35 +1088,36 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89065728"/>
+        <c:crossAx val="88081152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89065728"/>
+        <c:axId val="88081152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000031"/>
-          <c:min val="0.30000000000000016"/>
+          <c:max val="0.60000000000000053"/>
+          <c:min val="0.30000000000000027"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89063424"/>
+        <c:crossAx val="80959744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4304,23 +4307,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77395456"/>
-        <c:axId val="77396992"/>
+        <c:axId val="80094720"/>
+        <c:axId val="80096256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77395456"/>
+        <c:axId val="80094720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77396992"/>
+        <c:crossAx val="80096256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77396992"/>
+        <c:axId val="80096256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,19 +4331,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77395456"/>
+        <c:crossAx val="80094720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4350,9 +4354,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4754,47 +4756,46 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88405888"/>
-        <c:axId val="88404352"/>
+        <c:axId val="80444032"/>
+        <c:axId val="80458112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88405888"/>
+        <c:axId val="80444032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88404352"/>
+        <c:crossAx val="80458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88404352"/>
+        <c:axId val="80458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000009"/>
-          <c:min val="0.30000000000000004"/>
+          <c:max val="0.60000000000000031"/>
+          <c:min val="0.30000000000000016"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88405888"/>
+        <c:crossAx val="80444032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4804,9 +4805,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5208,23 +5207,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89086976"/>
-        <c:axId val="89085440"/>
+        <c:axId val="80568320"/>
+        <c:axId val="80569856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89086976"/>
+        <c:axId val="80568320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89085440"/>
+        <c:crossAx val="80569856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89085440"/>
+        <c:axId val="80569856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5232,20 +5231,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89086976"/>
+        <c:crossAx val="80568320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5255,9 +5253,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5659,23 +5655,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95906816"/>
-        <c:axId val="93451392"/>
+        <c:axId val="80606336"/>
+        <c:axId val="80607872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95906816"/>
+        <c:axId val="80606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93451392"/>
+        <c:crossAx val="80607872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93451392"/>
+        <c:axId val="80607872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5683,20 +5679,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95906816"/>
+        <c:crossAx val="80606336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6155,7 +6150,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6209,9 +6204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7469,7 +7464,7 @@
         <v>0.56768767993741198</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K61" si="1">(J35-J34)/J34*100</f>
+        <f t="shared" ref="K35:K66" si="1">(J35-J34)/J34*100</f>
         <v>1.8579856963937844</v>
       </c>
       <c r="L35" t="s">
@@ -7986,38 +7981,38 @@
         <v>6.9744527052152519E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
+    <row r="50" spans="1:12" s="2" customFormat="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>490</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.86369056230709995</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>0.84867078281037001</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>0.78038194444444398</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>0.78993055555555602</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>0.77083333333333304</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>0.77534433806796799</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>0.78250511027957104</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>0.56095699457081105</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <f t="shared" si="1"/>
         <v>0.8165503107461034</v>
       </c>
@@ -8436,8 +8431,8 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:J61"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10007,35 +10002,35 @@
         <v>1.3305951153632201E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
+    <row r="50" spans="1:10" s="2" customFormat="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>490</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>3.1322938844798101E-3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>9.4537088493000503E-3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>8.3936977455789704E-3</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>3.68284781868018E-3</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>1.8455114258219999E-2</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>1.3623345369849601E-2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>6.2513240551369999E-3</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>1.6585575808660401E-2</v>
       </c>
     </row>
@@ -10393,7 +10388,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10401,9 +10397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
